--- a/Documentation/Resources/mscw.xlsx
+++ b/Documentation/Resources/mscw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS\Version Control\GitHub\Fit-Fusion\Documentation\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91394CDE-F371-4CA6-BED1-7112696F49C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE6EFB-078E-4748-931F-AAD3BB93637F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50327993-3B1C-482F-B2FF-6A7226B636FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Must have</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Won't have</t>
   </si>
   <si>
-    <t>Owners has account</t>
-  </si>
-  <si>
     <t>Owners can create product</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Owners can view statistics</t>
   </si>
   <si>
-    <t>Staff has account</t>
-  </si>
-  <si>
     <t>Staff can create product</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Staff can view user</t>
   </si>
   <si>
-    <t>Customer has account</t>
-  </si>
-  <si>
     <t>Customer can create product</t>
   </si>
   <si>
@@ -156,6 +147,51 @@
   </si>
   <si>
     <t>Staff can view order history</t>
+  </si>
+  <si>
+    <t>Owners have account</t>
+  </si>
+  <si>
+    <t>Owners can see Customer recommendations</t>
+  </si>
+  <si>
+    <t>Owners can add product to recommendations</t>
+  </si>
+  <si>
+    <t>Owners can register</t>
+  </si>
+  <si>
+    <t>Staff can add product to recommendations</t>
+  </si>
+  <si>
+    <t>Staff can see Customer recommendations</t>
+  </si>
+  <si>
+    <t>Staff can register</t>
+  </si>
+  <si>
+    <t>Customer can register</t>
+  </si>
+  <si>
+    <t>Customer can add product to recommendations</t>
+  </si>
+  <si>
+    <t>Customer can see Customer recommendations</t>
+  </si>
+  <si>
+    <t>Customer have account</t>
+  </si>
+  <si>
+    <t>Staff have account</t>
+  </si>
+  <si>
+    <t>Owners can use NutriPoints</t>
+  </si>
+  <si>
+    <t>Customer can use NutriPoints</t>
+  </si>
+  <si>
+    <t>Staff can use NutriPoints</t>
   </si>
 </sst>
 </file>
@@ -551,211 +587,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6A3D3A-A383-45ED-A42C-54D7863A2D63}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4"/>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4"/>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4"/>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2"/>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2"/>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="1" t="s">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
